--- a/example/game_02_click_cookies/global_config.xlsx
+++ b/example/game_02_click_cookies/global_config.xlsx
@@ -630,7 +630,7 @@
         <v>Float</v>
       </c>
       <c r="G9">
-        <v>1000000000</v>
+        <v>250000000</v>
       </c>
       <c r="H9" t="str">
         <v>声望计算基数（总饼干 / 基数）</v>
@@ -656,7 +656,7 @@
         <v>Float</v>
       </c>
       <c r="G10">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="str">
         <v>声望计算指数</v>
@@ -682,7 +682,7 @@
         <v>Float</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="H11" t="str">
         <v>每次声望提升的全局 CPS 乘数</v>
